--- a/Docs/LearningPath_Track.xlsx
+++ b/Docs/LearningPath_Track.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Architect\Git\architectgit\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1AEF76E-5F39-4713-AEA3-25410308D9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6405B2-5ACB-4BA3-A679-BCD01AF593FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
     <sheet name="Mobile App" sheetId="2" r:id="rId2"/>
-    <sheet name="System Desing" sheetId="3" r:id="rId3"/>
+    <sheet name="System Design" sheetId="3" r:id="rId3"/>
     <sheet name="DSA" sheetId="4" r:id="rId4"/>
     <sheet name="Architecture Design" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">UI </t>
   </si>
@@ -71,9 +71,6 @@
     <t>Pre Sales</t>
   </si>
   <si>
-    <t>After Pre sales</t>
-  </si>
-  <si>
     <t>Sl.No</t>
   </si>
   <si>
@@ -93,13 +90,40 @@
   </si>
   <si>
     <t>Analysis of Algorithms</t>
+  </si>
+  <si>
+    <t>After Pre Sales</t>
+  </si>
+  <si>
+    <t>Introduction and Goals</t>
+  </si>
+  <si>
+    <t>Architecture Constraints</t>
+  </si>
+  <si>
+    <t>Business Context</t>
+  </si>
+  <si>
+    <t>Technical Context</t>
+  </si>
+  <si>
+    <t>Building Block View</t>
+  </si>
+  <si>
+    <t>Level -1</t>
+  </si>
+  <si>
+    <t>Level -2</t>
+  </si>
+  <si>
+    <t>Level -3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +135,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF4F81BD"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF4F81BD"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,12 +176,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,14 +336,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E4" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -615,6 +664,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -733,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860F76F6-7467-495B-815C-026DDAC3D7E0}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -744,50 +796,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,40 +852,81 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07AFE9-7454-492E-A946-18D63416197D}">
-  <dimension ref="B6:C13"/>
+  <dimension ref="B6:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>13</v>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LearningPath_Track.xlsx
+++ b/Docs/LearningPath_Track.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Architect\Git\architectgit\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6405B2-5ACB-4BA3-A679-BCD01AF593FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FAAC0-28F4-4141-BAC6-CB5C58883A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
   <si>
     <t xml:space="preserve">UI </t>
   </si>
@@ -71,6 +71,9 @@
     <t>Pre Sales</t>
   </si>
   <si>
+    <t>After Pre sales</t>
+  </si>
+  <si>
     <t>Sl.No</t>
   </si>
   <si>
@@ -92,31 +95,199 @@
     <t>Analysis of Algorithms</t>
   </si>
   <si>
-    <t>After Pre Sales</t>
-  </si>
-  <si>
-    <t>Introduction and Goals</t>
-  </si>
-  <si>
-    <t>Architecture Constraints</t>
-  </si>
-  <si>
-    <t>Business Context</t>
-  </si>
-  <si>
-    <t>Technical Context</t>
-  </si>
-  <si>
-    <t>Building Block View</t>
-  </si>
-  <si>
-    <t>Level -1</t>
-  </si>
-  <si>
-    <t>Level -2</t>
-  </si>
-  <si>
-    <t>Level -3</t>
+    <t>LLD</t>
+  </si>
+  <si>
+    <t>OOPs</t>
+  </si>
+  <si>
+    <t>Introduction to OOPs</t>
+  </si>
+  <si>
+    <t>Building Block of OOP's</t>
+  </si>
+  <si>
+    <t>Intro to Classes and Objects</t>
+  </si>
+  <si>
+    <t>Intro to Constructor</t>
+  </si>
+  <si>
+    <t>Intro to this keyword</t>
+  </si>
+  <si>
+    <t>Access modifier</t>
+  </si>
+  <si>
+    <t>Introduction to Fields</t>
+  </si>
+  <si>
+    <t>Method Overloading</t>
+  </si>
+  <si>
+    <t>Pillars of OOPS</t>
+  </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Abstraction</t>
+  </si>
+  <si>
+    <t>Abstraction classes and method</t>
+  </si>
+  <si>
+    <t>Intro to Interface</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Multiple Inheritence</t>
+  </si>
+  <si>
+    <t>Intro to Relationship</t>
+  </si>
+  <si>
+    <t>Aggregation and Composition</t>
+  </si>
+  <si>
+    <t>Object Oriented Design</t>
+  </si>
+  <si>
+    <t>Intro to Object Oriented Analysis &amp; Design</t>
+  </si>
+  <si>
+    <t>Intro to UML</t>
+  </si>
+  <si>
+    <t>Type of UML</t>
+  </si>
+  <si>
+    <t>Use-Case Diagram</t>
+  </si>
+  <si>
+    <t>Class Diagram</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Basics of LLD</t>
+  </si>
+  <si>
+    <t>Advance LLD &amp; Use case</t>
+  </si>
+  <si>
+    <t>Object Oriented Design Principle</t>
+  </si>
+  <si>
+    <t>Introduction of SOLID Design</t>
+  </si>
+  <si>
+    <t>Single Responsibility Principle</t>
+  </si>
+  <si>
+    <t>Open Closed Principle</t>
+  </si>
+  <si>
+    <t>Liskov Substitution Principle</t>
+  </si>
+  <si>
+    <t>Interface Segragation Principle</t>
+  </si>
+  <si>
+    <t>Dependency Inversion Princple</t>
+  </si>
+  <si>
+    <t>Design Patterns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction </t>
+  </si>
+  <si>
+    <t>Creation Design Patterns</t>
+  </si>
+  <si>
+    <t>Structional Design Patterns</t>
+  </si>
+  <si>
+    <t>Flyweight Patterns &amp; Proxy Patterns</t>
+  </si>
+  <si>
+    <t>Case Study - Movie Ticket Booking System</t>
+  </si>
+  <si>
+    <t>Designing BookMyShow : Part1</t>
+  </si>
+  <si>
+    <t>Part2</t>
+  </si>
+  <si>
+    <t>Part3</t>
+  </si>
+  <si>
+    <t>Part4</t>
+  </si>
+  <si>
+    <t>Part5</t>
+  </si>
+  <si>
+    <t>Case Study - Airline Booking System</t>
+  </si>
+  <si>
+    <t>Designing Airline - Part1</t>
+  </si>
+  <si>
+    <t>Contests…</t>
+  </si>
+  <si>
+    <t>HIGH LEVEL DESIGN - BASICS</t>
+  </si>
+  <si>
+    <t>Introduction to High Level Design</t>
+  </si>
+  <si>
+    <t>Intro to System Design</t>
+  </si>
+  <si>
+    <t>Intros</t>
+  </si>
+  <si>
+    <t>What is expected from you?</t>
+  </si>
+  <si>
+    <t>How shoud you expect</t>
+  </si>
+  <si>
+    <t>System Design Basics</t>
+  </si>
+  <si>
+    <t>Reliability</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>Maintainability</t>
+  </si>
+  <si>
+    <t>Zero To Infinity Intro</t>
+  </si>
+  <si>
+    <t>Client Server Architecture</t>
+  </si>
+  <si>
+    <t>Single Server Architecture</t>
   </si>
 </sst>
 </file>
@@ -141,16 +312,16 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color rgb="FF4F81BD"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF4F81BD"/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,22 +351,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -336,14 +652,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}" name="Table13" displayName="Table13" ref="A5:F58" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A5:F58" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5A1AE06D-CAA6-46F9-848C-87FFCBFC9E8B}" name="Sl.No" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{41A784F4-EB9D-4A22-A3D5-C7C210CA1A16}" name="Category" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{B5BF378B-5718-4727-85A3-59B04A191AE6}" name="Topic" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{459C6891-863C-43DA-9E95-E916412901C0}" name="Sub Topic " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8497CD6C-13FE-4A40-8FF1-D1B1A8B9669F}" name="Status" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B5D2FD36-0D98-46ED-A0D7-5232D2EBDEBC}" name="Date" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:E4" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -698,10 +1029,13 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -771,13 +1105,635 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764C8223-523B-462B-901F-CDEB420BBC62}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>7</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>8</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>9</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>10</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>11</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>12</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>13</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -786,7 +1742,7 @@
   <dimension ref="A2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="A2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,19 +1753,19 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -817,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -828,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -852,81 +1808,41 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E07AFE9-7454-492E-A946-18D63416197D}">
-  <dimension ref="B6:D20"/>
+  <dimension ref="B6:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="21" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
-        <v>28</v>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/LearningPath_Track.xlsx
+++ b/Docs/LearningPath_Track.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Architect\Git\architectgit\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650FAAC0-28F4-4141-BAC6-CB5C58883A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F14ED-43B5-4852-A026-16B1CDB8EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t xml:space="preserve">UI </t>
   </si>
@@ -288,6 +288,90 @@
   </si>
   <si>
     <t>Single Server Architecture</t>
+  </si>
+  <si>
+    <t>System Design Components</t>
+  </si>
+  <si>
+    <t>Domain Name System</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Intro</t>
+  </si>
+  <si>
+    <t>Request Routing</t>
+  </si>
+  <si>
+    <t>DNS Cache</t>
+  </si>
+  <si>
+    <t>DNS in Action: Route53</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Scaling Load Balancer</t>
+  </si>
+  <si>
+    <t>Load Balancing Algorithms</t>
+  </si>
+  <si>
+    <t>Exploring Database Architecture</t>
+  </si>
+  <si>
+    <t>Use of Database</t>
+  </si>
+  <si>
+    <t>Database Replication</t>
+  </si>
+  <si>
+    <t>Introduction to Database Sharding</t>
+  </si>
+  <si>
+    <t>Database Indexing</t>
+  </si>
+  <si>
+    <t>High level introduction to databases</t>
+  </si>
+  <si>
+    <t>Relational Databases</t>
+  </si>
+  <si>
+    <t>Non-Relational Databases</t>
+  </si>
+  <si>
+    <t>Comparing Relational and Non-Relational Databases</t>
+  </si>
+  <si>
+    <t>Types of Replication</t>
+  </si>
+  <si>
+    <t>Multi-Leader Replication</t>
+  </si>
+  <si>
+    <t>Leaderless Replication Topology</t>
+  </si>
+  <si>
+    <t>Sharding Strategies</t>
+  </si>
+  <si>
+    <t>Rebalancing</t>
+  </si>
+  <si>
+    <t>Consistant Hashing</t>
+  </si>
+  <si>
+    <t>Sharding Implementation in MongoDB and Cassandra</t>
+  </si>
+  <si>
+    <t>Intro and types of Indexing</t>
   </si>
 </sst>
 </file>
@@ -347,12 +431,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -362,30 +443,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -601,6 +669,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -652,29 +739,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}" name="Table13" displayName="Table13" ref="A5:F58" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A5:F58" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}" name="Table13" displayName="Table13" ref="A5:F62" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A5:F62" xr:uid="{6A18FBEF-67FC-4B8B-978C-A77EA80CCE18}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{5A1AE06D-CAA6-46F9-848C-87FFCBFC9E8B}" name="Sl.No" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{41A784F4-EB9D-4A22-A3D5-C7C210CA1A16}" name="Category" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{B5BF378B-5718-4727-85A3-59B04A191AE6}" name="Topic" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{459C6891-863C-43DA-9E95-E916412901C0}" name="Sub Topic " dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8497CD6C-13FE-4A40-8FF1-D1B1A8B9669F}" name="Status" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{B5D2FD36-0D98-46ED-A0D7-5232D2EBDEBC}" name="Date" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5A1AE06D-CAA6-46F9-848C-87FFCBFC9E8B}" name="Sl.No" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{41A784F4-EB9D-4A22-A3D5-C7C210CA1A16}" name="Category" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B5BF378B-5718-4727-85A3-59B04A191AE6}" name="Topic" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{459C6891-863C-43DA-9E95-E916412901C0}" name="Sub Topic " dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8497CD6C-13FE-4A40-8FF1-D1B1A8B9669F}" name="Status" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B5D2FD36-0D98-46ED-A0D7-5232D2EBDEBC}" name="Date" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E4" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1105,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764C8223-523B-462B-901F-CDEB420BBC62}">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1236,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1165,7 +1252,7 @@
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1264,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -1187,7 +1274,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>27</v>
@@ -1197,7 +1284,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>28</v>
@@ -1207,7 +1294,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>29</v>
@@ -1217,7 +1304,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>30</v>
@@ -1229,7 +1316,7 @@
       <c r="A13" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
@@ -1241,7 +1328,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>33</v>
@@ -1251,7 +1338,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>34</v>
@@ -1261,7 +1348,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1271,7 +1358,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
         <v>36</v>
@@ -1281,7 +1368,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
         <v>37</v>
@@ -1291,7 +1378,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>38</v>
@@ -1301,7 +1388,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
         <v>39</v>
@@ -1311,7 +1398,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
         <v>40</v>
@@ -1323,7 +1410,7 @@
       <c r="A22" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
@@ -1335,7 +1422,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
         <v>43</v>
@@ -1345,7 +1432,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
         <v>44</v>
@@ -1355,7 +1442,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
         <v>45</v>
@@ -1365,7 +1452,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
         <v>46</v>
@@ -1375,7 +1462,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
         <v>47</v>
@@ -1385,7 +1472,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
+      <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>48</v>
@@ -1397,7 +1484,7 @@
       <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1411,7 +1498,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
+      <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
         <v>54</v>
@@ -1421,7 +1508,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
         <v>55</v>
@@ -1431,7 +1518,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
         <v>56</v>
@@ -1441,7 +1528,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
+      <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>57</v>
@@ -1451,7 +1538,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
+      <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
         <v>58</v>
@@ -1463,7 +1550,7 @@
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
@@ -1475,7 +1562,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>61</v>
@@ -1485,7 +1572,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
+      <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>62</v>
@@ -1495,7 +1582,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>63</v>
@@ -1507,7 +1594,7 @@
       <c r="A39" s="1">
         <v>7</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
@@ -1519,7 +1606,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>66</v>
@@ -1529,7 +1616,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>67</v>
@@ -1539,7 +1626,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>68</v>
@@ -1549,7 +1636,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>69</v>
@@ -1561,7 +1648,7 @@
       <c r="A44" s="1">
         <v>8</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
@@ -1573,7 +1660,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
         <v>66</v>
@@ -1583,7 +1670,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>67</v>
@@ -1593,7 +1680,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>68</v>
@@ -1603,7 +1690,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
         <v>69</v>
@@ -1615,7 +1702,7 @@
       <c r="A49" s="1">
         <v>9</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
@@ -1625,7 +1712,7 @@
     </row>
     <row r="50" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A50" s="1"/>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="1"/>
@@ -1637,7 +1724,7 @@
       <c r="A51" s="1">
         <v>10</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1651,7 +1738,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
+      <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>77</v>
@@ -1661,7 +1748,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>78</v>
@@ -1673,8 +1760,8 @@
       <c r="A54" s="1">
         <v>11</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -1685,7 +1772,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
+      <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>81</v>
@@ -1695,7 +1782,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
         <v>82</v>
@@ -1707,8 +1794,8 @@
       <c r="A57" s="1">
         <v>12</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D57" s="1"/>
@@ -1719,7 +1806,7 @@
       <c r="A58" s="1">
         <v>13</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
         <v>84</v>
       </c>
@@ -1728,6 +1815,187 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>14</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>99</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D81" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>113</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1821,7 +2089,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -1829,13 +2097,13 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="5"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="5"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>

--- a/Docs/LearningPath_Track.xlsx
+++ b/Docs/LearningPath_Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Architect\Git\architectgit\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827F14ED-43B5-4852-A026-16B1CDB8EA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8281F7-5FD0-49BA-A134-D641036758A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{A27247F4-4302-493B-8584-F190D66B2294}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
   <si>
     <t xml:space="preserve">UI </t>
   </si>
@@ -372,6 +372,102 @@
   </si>
   <si>
     <t>Intro and types of Indexing</t>
+  </si>
+  <si>
+    <t>Advantages</t>
+  </si>
+  <si>
+    <t>Multi Level Indexing</t>
+  </si>
+  <si>
+    <t>B Tree and B+ Tree</t>
+  </si>
+  <si>
+    <t>Explain plan</t>
+  </si>
+  <si>
+    <t>HIGH LEVEL DESIGN - ADVANCED</t>
+  </si>
+  <si>
+    <t>Driving Deeper into Advance Topics</t>
+  </si>
+  <si>
+    <t>Queueing Systems</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
+  <si>
+    <t>System Design Framework</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>Design Problems</t>
+  </si>
+  <si>
+    <t>Design a Rate Limiter</t>
+  </si>
+  <si>
+    <t>Designing Object Store</t>
+  </si>
+  <si>
+    <t>Designing Twitter</t>
+  </si>
+  <si>
+    <t>Design a tiny url generator</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Issues and Types of Message Brokers</t>
+  </si>
+  <si>
+    <t>Message Brokers in Action: SQS SNS</t>
+  </si>
+  <si>
+    <t>Cache Types</t>
+  </si>
+  <si>
+    <t>Cache Invalidations</t>
+  </si>
+  <si>
+    <t>Cache Eviction Policy</t>
+  </si>
+  <si>
+    <t>Framework and Requirement Gathering</t>
+  </si>
+  <si>
+    <t>High Level Design</t>
+  </si>
+  <si>
+    <t>Back of the envelop estimates</t>
+  </si>
+  <si>
+    <t>Detail Design and Wrap Up</t>
+  </si>
+  <si>
+    <t>Security | JWT | Authentication and Authorization</t>
+  </si>
+  <si>
+    <t>Security_Encryption , Network Security</t>
+  </si>
+  <si>
+    <t>Security_ Secure Storage, Thread Modeling, Risk Assessment.</t>
+  </si>
+  <si>
+    <t>Monolith Architecture</t>
+  </si>
+  <si>
+    <t>Microservices Architecture</t>
+  </si>
+  <si>
+    <t>Serverless Architectures</t>
   </si>
 </sst>
 </file>
@@ -444,10 +540,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,6 +567,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -744,24 +841,24 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5A1AE06D-CAA6-46F9-848C-87FFCBFC9E8B}" name="Sl.No" dataDxfId="12"/>
     <tableColumn id="6" xr3:uid="{41A784F4-EB9D-4A22-A3D5-C7C210CA1A16}" name="Category" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B5BF378B-5718-4727-85A3-59B04A191AE6}" name="Topic" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{459C6891-863C-43DA-9E95-E916412901C0}" name="Sub Topic " dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8497CD6C-13FE-4A40-8FF1-D1B1A8B9669F}" name="Status" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B5D2FD36-0D98-46ED-A0D7-5232D2EBDEBC}" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B5BF378B-5718-4727-85A3-59B04A191AE6}" name="Topic" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{459C6891-863C-43DA-9E95-E916412901C0}" name="Sub Topic " dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{8497CD6C-13FE-4A40-8FF1-D1B1A8B9669F}" name="Status" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{B5D2FD36-0D98-46ED-A0D7-5232D2EBDEBC}" name="Date" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}" name="Table1" displayName="Table1" ref="A2:E4" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:E4" xr:uid="{FEEBC360-3F78-4073-ADDD-0B262065476F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{05EF6D79-3E44-4515-8BB9-6E53AB1943CA}" name="Sl.No" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{D1CB603E-1A05-4D69-BAB4-C8A386E43E87}" name="Topic" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{15D63996-1EF6-4F0F-B47A-875A7F2C94C3}" name="Sub Topic " dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EF2FB37D-D0FA-4915-9D68-6ED870527814}" name="Status" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1F1BE6D2-6354-4B3E-8586-B15A2144D13D}" name="Date" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1192,23 +1289,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{764C8223-523B-462B-901F-CDEB420BBC62}">
-  <dimension ref="A2:F82"/>
+  <dimension ref="A2:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.140625" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1222,7 +1319,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1242,7 +1339,7 @@
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1"/>
@@ -1256,7 +1353,7 @@
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="1"/>
@@ -1266,7 +1363,7 @@
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="1"/>
@@ -1276,7 +1373,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="1"/>
@@ -1286,7 +1383,7 @@
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="1"/>
@@ -1296,7 +1393,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1"/>
@@ -1306,7 +1403,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="1"/>
@@ -1320,7 +1417,7 @@
       <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="1"/>
@@ -1330,7 +1427,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="1"/>
@@ -1340,7 +1437,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="1"/>
@@ -1350,7 +1447,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="1"/>
@@ -1360,7 +1457,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="1"/>
@@ -1370,7 +1467,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="1"/>
@@ -1380,7 +1477,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="1"/>
@@ -1390,7 +1487,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="1"/>
@@ -1400,7 +1497,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="1"/>
@@ -1414,7 +1511,7 @@
       <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="1"/>
@@ -1424,7 +1521,7 @@
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="1"/>
@@ -1434,7 +1531,7 @@
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E24" s="1"/>
@@ -1444,7 +1541,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="1"/>
@@ -1454,7 +1551,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="1"/>
@@ -1464,7 +1561,7 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="1"/>
@@ -1474,13 +1571,13 @@
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="52.5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>5</v>
       </c>
@@ -1490,7 +1587,7 @@
       <c r="C29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="1"/>
@@ -1500,7 +1597,7 @@
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="1"/>
@@ -1510,7 +1607,7 @@
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="1"/>
@@ -1520,7 +1617,7 @@
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="1"/>
@@ -1530,7 +1627,7 @@
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E33" s="1"/>
@@ -1540,7 +1637,7 @@
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="1"/>
@@ -1554,7 +1651,7 @@
       <c r="C35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E35" s="1"/>
@@ -1564,7 +1661,7 @@
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E36" s="1"/>
@@ -1574,7 +1671,7 @@
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="1"/>
@@ -1584,7 +1681,7 @@
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E38" s="1"/>
@@ -1598,7 +1695,7 @@
       <c r="C39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="1"/>
@@ -1608,7 +1705,7 @@
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="1"/>
@@ -1618,7 +1715,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E41" s="1"/>
@@ -1628,7 +1725,7 @@
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E42" s="1"/>
@@ -1638,7 +1735,7 @@
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E43" s="1"/>
@@ -1652,7 +1749,7 @@
       <c r="C44" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="1"/>
@@ -1662,7 +1759,7 @@
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E45" s="1"/>
@@ -1672,7 +1769,7 @@
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E46" s="1"/>
@@ -1682,7 +1779,7 @@
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E47" s="1"/>
@@ -1692,7 +1789,7 @@
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>69</v>
       </c>
       <c r="E48" s="1"/>
@@ -1706,7 +1803,7 @@
       <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="1"/>
+      <c r="D49" s="2"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
@@ -1716,7 +1813,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="D50" s="2"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
@@ -1730,7 +1827,7 @@
       <c r="C51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E51" s="1"/>
@@ -1740,7 +1837,7 @@
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E52" s="1"/>
@@ -1750,7 +1847,7 @@
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E53" s="1"/>
@@ -1764,7 +1861,7 @@
       <c r="C54" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E54" s="1"/>
@@ -1774,7 +1871,7 @@
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E55" s="1"/>
@@ -1784,7 +1881,7 @@
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="1"/>
@@ -1798,7 +1895,7 @@
       <c r="C57" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="1"/>
+      <c r="D57" s="2"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1810,7 +1907,7 @@
       <c r="C58" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="2" t="s">
         <v>85</v>
       </c>
       <c r="E58" s="1"/>
@@ -1826,7 +1923,7 @@
       <c r="C59" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E59" s="1"/>
@@ -1836,7 +1933,7 @@
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E60" s="1"/>
@@ -1846,7 +1943,7 @@
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E61" s="1"/>
@@ -1856,7 +1953,7 @@
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E62" s="1"/>
@@ -1869,7 +1966,7 @@
       <c r="C63" t="s">
         <v>88</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1877,19 +1974,19 @@
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1900,12 +1997,12 @@
       <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1919,22 +2016,22 @@
       <c r="C69" t="s">
         <v>98</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1942,22 +2039,22 @@
       <c r="C73" t="s">
         <v>99</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1965,36 +2062,199 @@
       <c r="C77" t="s">
         <v>100</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D81" s="6" t="s">
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D81" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>101</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D101" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>19</v>
+      </c>
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2349,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -2097,13 +2357,13 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>11</v>
       </c>
